--- a/simulation_data/one_step_algorithm/1s_error_level_4_percent_water_60.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_4_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.01776713869704</v>
+        <v>89.93097523050483</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9912636219857256</v>
+        <v>1.01116443044521</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.07384335288226</v>
+        <v>88.91534477654228</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9434804781187486</v>
+        <v>0.9197948216909585</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.04800384864319</v>
+        <v>88.04466743999944</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9876547045370965</v>
+        <v>0.9275561468969933</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.99826985427011</v>
+        <v>87.17906609601576</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8798648996743269</v>
+        <v>0.8969425528945946</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.97184173605974</v>
+        <v>85.8917556027564</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9450805108900138</v>
+        <v>0.9673756593230092</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.0202392595149</v>
+        <v>85.16097683795545</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8968099964458136</v>
+        <v>0.8306814007982145</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.87235199429988</v>
+        <v>83.96790805749193</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9223260720793812</v>
+        <v>0.9946811393408116</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.06902661413692</v>
+        <v>83.20165105089646</v>
       </c>
       <c r="D9" t="n">
-        <v>1.077308265017085</v>
+        <v>0.9532054793224291</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.87699866173151</v>
+        <v>81.86275255701339</v>
       </c>
       <c r="D10" t="n">
-        <v>1.206253667282943</v>
+        <v>1.064958175269608</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.20639779541047</v>
+        <v>81.14173226557078</v>
       </c>
       <c r="D11" t="n">
-        <v>1.061659252020133</v>
+        <v>1.001839838463293</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.08069005897809</v>
+        <v>79.94927791355344</v>
       </c>
       <c r="D12" t="n">
-        <v>1.047657257231984</v>
+        <v>1.031304950170594</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.77983692524998</v>
+        <v>79.10162981902883</v>
       </c>
       <c r="D13" t="n">
-        <v>1.147180716815067</v>
+        <v>1.08328093816231</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.79864667713399</v>
+        <v>77.8622909071525</v>
       </c>
       <c r="D14" t="n">
-        <v>1.124677386114556</v>
+        <v>0.9880540922165104</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.94347267543495</v>
+        <v>76.97664454048504</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8925905089829292</v>
+        <v>1.060702519498056</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.96278939496217</v>
+        <v>75.78038727015044</v>
       </c>
       <c r="D16" t="n">
-        <v>1.037455564522745</v>
+        <v>1.191107126039588</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.0987153010152</v>
+        <v>74.98694031866515</v>
       </c>
       <c r="D17" t="n">
-        <v>1.10270148781655</v>
+        <v>1.058889425989968</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.92593530556172</v>
+        <v>74.18665163398458</v>
       </c>
       <c r="D18" t="n">
-        <v>0.990961190045382</v>
+        <v>1.03266368203589</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.27898163240599</v>
+        <v>72.88866902855155</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8999954252965312</v>
+        <v>1.125368924894199</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.01759457982415</v>
+        <v>72.14759654881092</v>
       </c>
       <c r="D20" t="n">
-        <v>1.024005884217269</v>
+        <v>1.018128983449538</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.0056881930565</v>
+        <v>71.05805472345422</v>
       </c>
       <c r="D21" t="n">
-        <v>1.107668125356548</v>
+        <v>1.032983557952815</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.88695983562867</v>
+        <v>70.07346097786042</v>
       </c>
       <c r="D22" t="n">
-        <v>1.009487896224879</v>
+        <v>1.104695558137715</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.8736125654018</v>
+        <v>69.03957915183965</v>
       </c>
       <c r="D23" t="n">
-        <v>1.094764204573842</v>
+        <v>1.057216237098383</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.97587059226858</v>
+        <v>68.13963288179009</v>
       </c>
       <c r="D24" t="n">
-        <v>1.198999310295434</v>
+        <v>1.317668508238845</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.0156397579731</v>
+        <v>67.07308386882647</v>
       </c>
       <c r="D25" t="n">
-        <v>1.343873573457776</v>
+        <v>1.081197816757438</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.94538738097457</v>
+        <v>66.06438955140062</v>
       </c>
       <c r="D26" t="n">
-        <v>1.12968958296884</v>
+        <v>1.111882550343713</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.18979651815606</v>
+        <v>64.95878201222179</v>
       </c>
       <c r="D27" t="n">
-        <v>1.108015169187698</v>
+        <v>1.110403555168171</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.90144330686421</v>
+        <v>64.18913557490806</v>
       </c>
       <c r="D28" t="n">
-        <v>1.173619070792606</v>
+        <v>1.287273737997513</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.15212251969906</v>
+        <v>62.84493774315719</v>
       </c>
       <c r="D29" t="n">
-        <v>1.202526713402047</v>
+        <v>1.236254420622739</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.8911724528331</v>
+        <v>62.05800716993716</v>
       </c>
       <c r="D30" t="n">
-        <v>1.129139488095242</v>
+        <v>1.247162917127401</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.03610649474176</v>
+        <v>61.07719339586635</v>
       </c>
       <c r="D31" t="n">
-        <v>1.157675723207876</v>
+        <v>1.100442540130021</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.0914641675225</v>
+        <v>59.99466204444846</v>
       </c>
       <c r="D32" t="n">
-        <v>1.038992239532101</v>
+        <v>1.163183375479575</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.92875331673217</v>
+        <v>58.82287529601569</v>
       </c>
       <c r="D33" t="n">
-        <v>1.238049730390211</v>
+        <v>1.17908454251161</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.76174905125987</v>
+        <v>58.17205353082571</v>
       </c>
       <c r="D34" t="n">
-        <v>1.293458563752301</v>
+        <v>1.226854093355325</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.02808301941894</v>
+        <v>57.10124258253766</v>
       </c>
       <c r="D35" t="n">
-        <v>1.17663024445826</v>
+        <v>1.258861263401762</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.98874373039979</v>
+        <v>56.07391338173264</v>
       </c>
       <c r="D36" t="n">
-        <v>1.153954750344924</v>
+        <v>1.258617239771705</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.91711980025847</v>
+        <v>55.00139246488022</v>
       </c>
       <c r="D37" t="n">
-        <v>1.252362991921484</v>
+        <v>1.273623031774274</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.9627730379167</v>
+        <v>54.11347462172577</v>
       </c>
       <c r="D38" t="n">
-        <v>1.223988639112535</v>
+        <v>1.151259449488215</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.10665345054519</v>
+        <v>52.90134411696656</v>
       </c>
       <c r="D39" t="n">
-        <v>1.342741513857692</v>
+        <v>1.088819014046312</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.81241311788485</v>
+        <v>52.16645383749818</v>
       </c>
       <c r="D40" t="n">
-        <v>1.37968930214287</v>
+        <v>1.216239269104954</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.78540852014677</v>
+        <v>51.03789975346326</v>
       </c>
       <c r="D41" t="n">
-        <v>1.120881759989808</v>
+        <v>1.267517962652608</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.01118332980399</v>
+        <v>49.9831662805871</v>
       </c>
       <c r="D42" t="n">
-        <v>1.185651939103751</v>
+        <v>1.294026578810099</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.99082992439691</v>
+        <v>48.9820068413793</v>
       </c>
       <c r="D43" t="n">
-        <v>1.422997265282783</v>
+        <v>1.320585333582584</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.08365677552501</v>
+        <v>47.79551653236093</v>
       </c>
       <c r="D44" t="n">
-        <v>1.276907173454163</v>
+        <v>1.393626073838457</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.00296710978555</v>
+        <v>47.01349931913553</v>
       </c>
       <c r="D45" t="n">
-        <v>1.247772132190603</v>
+        <v>1.282356749665492</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.16504087250271</v>
+        <v>46.05948467862611</v>
       </c>
       <c r="D46" t="n">
-        <v>1.221633819555655</v>
+        <v>1.273691718153485</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.91149052438885</v>
+        <v>44.89258084499823</v>
       </c>
       <c r="D47" t="n">
-        <v>1.222477889355005</v>
+        <v>1.18513023914143</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.00546482936767</v>
+        <v>44.16651607351593</v>
       </c>
       <c r="D48" t="n">
-        <v>1.330303569845519</v>
+        <v>1.422124640953108</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.02445275631686</v>
+        <v>42.89472680474834</v>
       </c>
       <c r="D49" t="n">
-        <v>1.29596334546143</v>
+        <v>1.332440550070275</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.05440659605123</v>
+        <v>42.1003530700265</v>
       </c>
       <c r="D50" t="n">
-        <v>1.648595001875545</v>
+        <v>1.342624234527528</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.16376701783686</v>
+        <v>41.21058429335228</v>
       </c>
       <c r="D51" t="n">
-        <v>1.219226568808693</v>
+        <v>1.397176545930445</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.14516573329686</v>
+        <v>40.05700090072082</v>
       </c>
       <c r="D52" t="n">
-        <v>1.279954005237311</v>
+        <v>1.290463192910263</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.22654631945112</v>
+        <v>38.97828667777507</v>
       </c>
       <c r="D53" t="n">
-        <v>1.303116741793382</v>
+        <v>1.596177189299808</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.48681070148493</v>
+        <v>37.9046435105458</v>
       </c>
       <c r="D54" t="n">
-        <v>1.303824447888388</v>
+        <v>1.324549881509004</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.99698918482851</v>
+        <v>37.22501217411966</v>
       </c>
       <c r="D55" t="n">
-        <v>1.355672283739376</v>
+        <v>1.188613407406673</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.03150579766094</v>
+        <v>35.83180667940724</v>
       </c>
       <c r="D56" t="n">
-        <v>1.156925466307442</v>
+        <v>1.323427297855853</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.79060036002609</v>
+        <v>34.94562820651591</v>
       </c>
       <c r="D57" t="n">
-        <v>1.385309826553263</v>
+        <v>1.221182986870025</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.92033709894899</v>
+        <v>34.30843030375844</v>
       </c>
       <c r="D58" t="n">
-        <v>1.29868280073685</v>
+        <v>1.246819767643459</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.15620958864768</v>
+        <v>32.87419799766953</v>
       </c>
       <c r="D59" t="n">
-        <v>1.276460529505764</v>
+        <v>1.244361325461524</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.29111482349155</v>
+        <v>31.82968144618137</v>
       </c>
       <c r="D60" t="n">
-        <v>1.25352601081648</v>
+        <v>1.198340414332531</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.92012398415558</v>
+        <v>31.00146468526545</v>
       </c>
       <c r="D61" t="n">
-        <v>1.290497070389761</v>
+        <v>1.434404676245339</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.94184502029406</v>
+        <v>29.7644942400228</v>
       </c>
       <c r="D62" t="n">
-        <v>1.311438804558289</v>
+        <v>1.220081591197368</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.81098226746591</v>
+        <v>29.03223650307988</v>
       </c>
       <c r="D63" t="n">
-        <v>1.322588223416921</v>
+        <v>1.179174559555369</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.21362008253032</v>
+        <v>27.8111604253338</v>
       </c>
       <c r="D64" t="n">
-        <v>1.455576582588396</v>
+        <v>1.501111276838983</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.98316653999841</v>
+        <v>26.95410608989715</v>
       </c>
       <c r="D65" t="n">
-        <v>1.401138875125918</v>
+        <v>1.51463791606995</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.95424723320495</v>
+        <v>26.06658756995664</v>
       </c>
       <c r="D66" t="n">
-        <v>1.414239764396031</v>
+        <v>1.414401411235735</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.16656920703803</v>
+        <v>25.01893203362533</v>
       </c>
       <c r="D67" t="n">
-        <v>1.255521815839597</v>
+        <v>1.400997695835705</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.3037104746149</v>
+        <v>23.97408722221626</v>
       </c>
       <c r="D68" t="n">
-        <v>1.305629845738713</v>
+        <v>1.486335976424072</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.80979146729669</v>
+        <v>23.30890241536553</v>
       </c>
       <c r="D69" t="n">
-        <v>1.4344602326738</v>
+        <v>1.344296335006872</v>
       </c>
     </row>
   </sheetData>
